--- a/Хисамов И.Р. Практика №9.xlsx
+++ b/Хисамов И.Р. Практика №9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA43406-A957-4291-8D8F-3B310FB9D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F58E8-DCE6-4CD3-B82D-A136E59D246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{39319A1C-01F2-40A6-B6D0-73D318688C78}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>l</t>
   </si>
@@ -83,6 +105,18 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>F2/K2</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +139,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +182,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -224,11 +282,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +348,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,19 +508,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.25</c:v>
+                  <c:v>-1.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5</c:v>
+                  <c:v>-1.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.25</c:v>
+                  <c:v>-1.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -482,19 +572,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.25</c:v>
+                  <c:v>-1.53125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-0.75</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -546,19 +636,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.75</c:v>
+                  <c:v>-1.453125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-1.6328125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25</c:v>
+                  <c:v>-1.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.6328125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25</c:v>
+                  <c:v>0.546875</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -610,19 +700,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.25</c:v>
+                  <c:v>-1.384765625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1.5234375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.75</c:v>
+                  <c:v>-1.25390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>-0.5234375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.615234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -674,19 +764,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>-1.3232421875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>-1.42138671875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.75</c:v>
+                  <c:v>-1.138671875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-0.42138671875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.25</c:v>
+                  <c:v>0.6767578125</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1143,19 +1233,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.25</c:v>
+                  <c:v>-0.96080186631944375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.79500325520833426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.75</c:v>
+                  <c:v>-0.41639539930555508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.20499674479166582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.25</c:v>
+                  <c:v>1.039198133680556</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1207,19 +1297,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.75</c:v>
+                  <c:v>-0.93138744212962932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>-0.74511718750000067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.25</c:v>
+                  <c:v>-0.35930266203703687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>0.2548828124999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.75</c:v>
+                  <c:v>1.0686125578703705</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1271,19 +1361,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.25</c:v>
+                  <c:v>-0.90398341049382691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>-0.69835069444444475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.75</c:v>
+                  <c:v>-0.30565200617283944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>0.30164930555555525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.25</c:v>
+                  <c:v>1.0960165895061729</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1335,19 +1425,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.25</c:v>
+                  <c:v>-0.87840792181069949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.5</c:v>
+                  <c:v>-0.65451388888888906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.25</c:v>
+                  <c:v>-0.25527263374485598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5</c:v>
+                  <c:v>0.34548611111111088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.25</c:v>
+                  <c:v>1.1215920781893003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1391,7 +1481,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$35:$I$35</c:f>
+              <c:f>Лист1!$C$40:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1399,19 +1489,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-38.75</c:v>
+                  <c:v>-0.85450960219478733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>-0.61342592592592604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-15.25</c:v>
+                  <c:v>-0.20799039780521267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>0.3865740740740739</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-36.75</c:v>
+                  <c:v>1.1454903978052124</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1769,6 +1859,19 @@
               <a:rPr lang="ru-RU"/>
               <a:t>Сравнение</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>явной</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> и неявной</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1847,19 +1950,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.25</c:v>
+                  <c:v>-1.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5</c:v>
+                  <c:v>-1.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.25</c:v>
+                  <c:v>-1.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1914,19 +2017,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.25</c:v>
+                  <c:v>-0.96080186631944375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.79500325520833426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.75</c:v>
+                  <c:v>-0.41639539930555508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.20499674479166582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.25</c:v>
+                  <c:v>1.039198133680556</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -2174,10 +2277,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2232,10 +2332,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4222,16 +4319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>90833</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>176558</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552634</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66820</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28759</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4254,7 +4351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6186833" y="552449"/>
+          <a:off x="14197358" y="4057649"/>
           <a:ext cx="1071401" cy="847871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4396,15 +4493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4427,6 +4524,64 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>210224</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD1CD51-BE41-432D-BF9A-4D12859FD1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="10982325"/>
+          <a:ext cx="4829849" cy="981212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4729,15 +4884,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8AA4E-6351-459A-A565-C70569755BC7}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4811,7 +4968,12 @@
         <v>1</v>
       </c>
       <c r="L2" s="3">
-        <f>F2/K2</f>
+        <f>K5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4826,6 +4988,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="17"/>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -4841,6 +5012,14 @@
         <v>0,25x^2 - x - 1</v>
       </c>
       <c r="D5" s="17"/>
+      <c r="J5" s="1">
+        <f>(G2^2)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5/(G2^2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -4926,24 +5105,24 @@
         <v>-1</v>
       </c>
       <c r="D10" s="5">
-        <f>$L$2*$H$2*E9+(1-2*$L$2*$H$2)*D9+$L$2*$H$2*C9</f>
-        <v>-1.25</v>
+        <f>$K$5*$H$2*E9+(1-2*$K$5*$H$2)*D9+$L$2*$H$2*C9</f>
+        <v>-1.625</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:H10" si="3">$L$2*$H$2*F9+(1-2*$L$2*$H$2)*E9+$L$2*$H$2*D9</f>
-        <v>-1.5</v>
+        <f t="shared" ref="E10:H10" si="3">$K$5*$H$2*F9+(1-2*$K$5*$H$2)*E9+$L$2*$H$2*D9</f>
+        <v>-1.875</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="3"/>
-        <v>-1.25</v>
+        <v>-1.625</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <v>-0.875</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="2"/>
@@ -4960,24 +5139,24 @@
         <v>-1</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:D14" si="4">$L$2*$H$2*E10+(1-2*$L$2*$H$2)*D10+$L$2*$H$2*C10</f>
-        <v>-1.25</v>
+        <f t="shared" ref="D11:D14" si="4">$K$5*$H$2*E10+(1-2*$K$5*$H$2)*D10+$L$2*$H$2*C10</f>
+        <v>-1.53125</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11:E14" si="5">$L$2*$H$2*F10+(1-2*$L$2*$H$2)*E10+$L$2*$H$2*D10</f>
-        <v>-1</v>
+        <f t="shared" ref="E11:E14" si="5">$K$5*$H$2*F10+(1-2*$K$5*$H$2)*E10+$L$2*$H$2*D10</f>
+        <v>-1.75</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11:F14" si="6">$L$2*$H$2*G10+(1-2*$L$2*$H$2)*F10+$L$2*$H$2*E10</f>
+        <f t="shared" ref="F11:F14" si="6">$K$5*$H$2*G10+(1-2*$K$5*$H$2)*F10+$L$2*$H$2*E10</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G14" si="7">$K$5*$H$2*H10+(1-2*$K$5*$H$2)*G10+$L$2*$H$2*F10</f>
         <v>-0.75</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" ref="G11:G14" si="7">$L$2*$H$2*H10+(1-2*$L$2*$H$2)*G10+$L$2*$H$2*F10</f>
-        <v>0</v>
-      </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11:H14" si="8">$L$2*$H$2*I10+(1-2*$L$2*$H$2)*H10+$L$2*$H$2*G10</f>
-        <v>0.75</v>
+        <f t="shared" ref="H11:H14" si="8">$K$5*$H$2*I10+(1-2*$K$5*$H$2)*H10+$L$2*$H$2*G10</f>
+        <v>0.46875</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="2"/>
@@ -4995,23 +5174,23 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="4"/>
-        <v>-0.75</v>
+        <v>-1.453125</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-1.6328125</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="6"/>
-        <v>-0.25</v>
+        <v>-1.375</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.6328125</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.546875</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="2"/>
@@ -5029,23 +5208,23 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="4"/>
-        <v>-1.25</v>
+        <v>-1.384765625</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1.5234375</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="6"/>
-        <v>-0.75</v>
+        <v>-1.25390625</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>-0.5234375</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>0.615234375</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="2"/>
@@ -5062,24 +5241,24 @@
         <v>-1</v>
       </c>
       <c r="D14" s="5">
-        <f>$L$2*$H$2*E13+(1-2*$L$2*$H$2)*D13+$L$2*$H$2*C13</f>
-        <v>0.25</v>
+        <f t="shared" si="4"/>
+        <v>-1.3232421875</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-1.42138671875</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>-1.138671875</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>-0.42138671875</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="8"/>
-        <v>2.25</v>
+        <v>0.6767578125</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="2"/>
@@ -5136,27 +5315,22 @@
         <v>-1</v>
       </c>
       <c r="D35" s="5">
-        <f>-$L$2*$H$2*E36+(1+2*$L$2*$H$2)*D36-$L$2*$H$2*C36</f>
-        <v>-38.75</v>
+        <v>-1.75</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" ref="E35:E36" si="10">-$L$2*$H$2*F36+(1+2*$L$2*$H$2)*E36-$L$2*$H$2*D36</f>
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" ref="F35:F36" si="11">-$L$2*$H$2*G36+(1+2*$L$2*$H$2)*F36-$L$2*$H$2*E36</f>
-        <v>-15.25</v>
+        <v>-1.75</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" ref="G35:G36" si="12">-$L$2*$H$2*H36+(1+2*$L$2*$H$2)*G36-$L$2*$H$2*F36</f>
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ref="H35:H36" si="13">-$L$2*$H$2*I36+(1+2*$L$2*$H$2)*H36-$L$2*$H$2*G36</f>
-        <v>-36.75</v>
+        <v>0.25</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" ref="I35:I40" si="14">$B$5</f>
+        <f t="shared" ref="I35:I40" si="10">$B$5</f>
         <v>2</v>
       </c>
     </row>
@@ -5171,26 +5345,26 @@
       </c>
       <c r="D36" s="5">
         <f>-$L$2*$H$2*E37+(1+2*$L$2*$H$2)*D37-$L$2*$H$2*C37</f>
-        <v>-13.25</v>
+        <v>-0.96080186631944375</v>
       </c>
       <c r="E36" s="5">
         <f>-$L$2*$H$2*F37+(1+2*$L$2*$H$2)*E37-$L$2*$H$2*D37</f>
-        <v>0</v>
+        <v>-0.79500325520833426</v>
       </c>
       <c r="F36" s="5">
         <f>-$L$2*$H$2*G37+(1+2*$L$2*$H$2)*F37-$L$2*$H$2*E37</f>
-        <v>-4.75</v>
+        <v>-0.41639539930555508</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" ref="G35:G36" si="11">-$L$2*$H$2*H37+(1+2*$L$2*$H$2)*G37-$L$2*$H$2*F37</f>
+        <v>0.20499674479166582</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="13"/>
-        <v>-11.25</v>
+        <f t="shared" ref="H35:H36" si="12">-$L$2*$H$2*I37+(1+2*$L$2*$H$2)*H37-$L$2*$H$2*G37</f>
+        <v>1.039198133680556</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -5204,27 +5378,27 @@
         <v>-1</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:D39" si="15">-$L$2*$H$2*E38+(1+2*$L$2*$H$2)*D38-$L$2*$H$2*C38</f>
-        <v>-5.75</v>
+        <f>-$L$2*$H$2*E38+(1+2*$L$2*$H$2)*D38-$L$2*$H$2*C38</f>
+        <v>-0.93138744212962932</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" ref="E37:E39" si="16">-$L$2*$H$2*F38+(1+2*$L$2*$H$2)*E38-$L$2*$H$2*D38</f>
-        <v>-3</v>
+        <f t="shared" ref="E37:E39" si="13">-$L$2*$H$2*F38+(1+2*$L$2*$H$2)*E38-$L$2*$H$2*D38</f>
+        <v>-0.74511718750000067</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ref="F37:F39" si="17">-$L$2*$H$2*G38+(1+2*$L$2*$H$2)*F38-$L$2*$H$2*E38</f>
-        <v>-3.25</v>
+        <f t="shared" ref="F37:F39" si="14">-$L$2*$H$2*G38+(1+2*$L$2*$H$2)*F38-$L$2*$H$2*E38</f>
+        <v>-0.35930266203703687</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" ref="G37:G39" si="18">-$L$2*$H$2*H38+(1+2*$L$2*$H$2)*G38-$L$2*$H$2*F38</f>
-        <v>-2</v>
+        <f t="shared" ref="G37:G39" si="15">-$L$2*$H$2*H38+(1+2*$L$2*$H$2)*G38-$L$2*$H$2*F38</f>
+        <v>0.2548828124999995</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" ref="H37:H39" si="19">-$L$2*$H$2*I38+(1+2*$L$2*$H$2)*H38-$L$2*$H$2*G38</f>
-        <v>-3.75</v>
+        <f t="shared" ref="H37:H39" si="16">-$L$2*$H$2*I38+(1+2*$L$2*$H$2)*H38-$L$2*$H$2*G38</f>
+        <v>1.0686125578703705</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -5239,26 +5413,26 @@
       </c>
       <c r="D38" s="5">
         <f>-$L$2*$H$2*E39+(1+2*$L$2*$H$2)*D39-$L$2*$H$2*C39</f>
-        <v>-3.25</v>
+        <v>-0.90398341049382691</v>
       </c>
       <c r="E38" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.69835069444444475</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.30565200617283944</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="15"/>
+        <v>0.30164930555555525</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="16"/>
-        <v>-3</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="17"/>
-        <v>-2.75</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" si="18"/>
-        <v>-2</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="19"/>
-        <v>-1.25</v>
+        <v>1.0960165895061729</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -5273,26 +5447,26 @@
       </c>
       <c r="D39" s="5">
         <f>-$L$2*$H$2*E40+(1+2*$L$2*$H$2)*D40-$L$2*$H$2*C40</f>
-        <v>-2.25</v>
+        <v>-0.87840792181069949</v>
       </c>
       <c r="E39" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.65451388888888906</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.25527263374485598</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="15"/>
+        <v>0.34548611111111088</v>
+      </c>
+      <c r="H39" s="5">
         <f t="shared" si="16"/>
-        <v>-2.5</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="17"/>
-        <v>-2.25</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="shared" si="18"/>
-        <v>-1.5</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="19"/>
-        <v>-0.25</v>
+        <v>1.1215920781893003</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -5302,31 +5476,448 @@
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="5">
-        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="D40" s="5">
+        <v>-0.85450960219478733</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-0.61342592592592604</v>
+      </c>
+      <c r="F40" s="5">
+        <v>-0.20799039780521267</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.3865740740740739</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1.1454903978052124</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>1</v>
+      </c>
+      <c r="B58" s="19">
+        <v>0</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18">
+        <f>0.25*H58^2-H58-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J58" s="24" cm="1">
+        <f t="array" ref="J58:J64">MMULT(MINVERSE($A$58:$G$64),I58:I64)</f>
+        <v>-1</v>
+      </c>
+      <c r="K58" s="24" cm="1">
+        <f t="array" ref="K58:K64">MMULT(MINVERSE($A$58:$G$64),J58:J64)</f>
+        <v>-1</v>
+      </c>
+      <c r="L58" s="24" cm="1">
+        <f t="array" ref="L58:L64">MMULT(MINVERSE($A$58:$G$64),K58:K64)</f>
+        <v>-1</v>
+      </c>
+      <c r="M58" s="24" cm="1">
+        <f t="array" ref="M58:M64">MMULT(MINVERSE($A$58:$G$64),L58:L64)</f>
+        <v>-1</v>
+      </c>
+      <c r="N58" s="24" cm="1">
+        <f t="array" ref="N58:N64">MMULT(MINVERSE($A$58:$G$64),M58:M64)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="B59" s="19">
+        <f>1+2*$L$2*$H$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C59" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0</v>
+      </c>
+      <c r="F59" s="19">
+        <v>0</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0</v>
+      </c>
+      <c r="H59" s="23">
+        <f>H58+1</f>
+        <v>1</v>
+      </c>
+      <c r="I59" s="18">
+        <f>0.25*H59^2-H59-1</f>
         <v>-1.75</v>
       </c>
-      <c r="E40" s="5">
+      <c r="J59" s="24">
+        <v>-1.6464646464646462</v>
+      </c>
+      <c r="K59" s="24">
+        <v>-1.5581573308846033</v>
+      </c>
+      <c r="L59" s="24">
+        <v>-1.4810316201500771</v>
+      </c>
+      <c r="M59" s="24">
+        <v>-1.4124126593030504</v>
+      </c>
+      <c r="N59" s="24">
+        <v>-1.3504963610135032</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>0</v>
+      </c>
+      <c r="B60" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="C60" s="19">
+        <f>1+2*$L$2*$H$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D60" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="E60" s="19">
+        <v>0</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
+        <f t="shared" ref="H60:H64" si="17">H59+1</f>
+        <v>2</v>
+      </c>
+      <c r="I60" s="18">
+        <f>0.25*H60^2-H60-1</f>
         <v>-2</v>
       </c>
-      <c r="F40" s="5">
+      <c r="J60" s="24">
+        <v>-1.8787878787878787</v>
+      </c>
+      <c r="K60" s="24">
+        <v>-1.7630853994490359</v>
+      </c>
+      <c r="L60" s="24">
+        <v>-1.6535603973620503</v>
+      </c>
+      <c r="M60" s="24">
+        <v>-1.5503494752179949</v>
+      </c>
+      <c r="N60" s="24">
+        <v>-1.4533275288688166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
+        <v>0</v>
+      </c>
+      <c r="B61" s="19">
+        <v>0</v>
+      </c>
+      <c r="C61" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D61" s="19">
+        <f>1+2*$L$2*$H$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0</v>
+      </c>
+      <c r="H61" s="23">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="I61" s="18">
+        <f>0.25*H61^2-H61-1</f>
         <v>-1.75</v>
       </c>
-      <c r="G40" s="5">
+      <c r="J61" s="24">
+        <v>-1.6262626262626263</v>
+      </c>
+      <c r="K61" s="24">
+        <v>-1.5052035506580961</v>
+      </c>
+      <c r="L61" s="24">
+        <v>-1.3879891662260806</v>
+      </c>
+      <c r="M61" s="24">
+        <v>-1.2754426025567187</v>
+      </c>
+      <c r="N61" s="24">
+        <v>-1.1680709113274179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
+        <v>0</v>
+      </c>
+      <c r="B62" s="19">
+        <v>0</v>
+      </c>
+      <c r="C62" s="19">
+        <v>0</v>
+      </c>
+      <c r="D62" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="E62" s="19">
+        <f>1+2*$L$2*$H$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="F62" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="G62" s="19">
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="I62" s="18">
+        <f>0.25*H62^2-H62-1</f>
         <v>-1</v>
       </c>
-      <c r="H40" s="5">
+      <c r="J62" s="24">
+        <v>-0.87878787878787878</v>
+      </c>
+      <c r="K62" s="24">
+        <v>-0.76308539944903586</v>
+      </c>
+      <c r="L62" s="24">
+        <v>-0.65356039736205029</v>
+      </c>
+      <c r="M62" s="24">
+        <v>-0.55034947521799515</v>
+      </c>
+      <c r="N62" s="24">
+        <v>-0.45332752886881711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>0</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0</v>
+      </c>
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+      <c r="E63" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="F63" s="19">
+        <f>1+2*$L$2*$H$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="19">
+        <f>-$L$2*$H$2</f>
+        <v>-0.25</v>
+      </c>
+      <c r="H63" s="23">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="I63" s="18">
+        <f>0.25*H63^2-H63-1</f>
         <v>0.25</v>
       </c>
-      <c r="I40" s="5">
-        <f t="shared" si="14"/>
+      <c r="J63" s="24">
+        <v>0.35353535353535354</v>
+      </c>
+      <c r="K63" s="24">
+        <v>0.44184266911539638</v>
+      </c>
+      <c r="L63" s="24">
+        <v>0.5189683798499225</v>
+      </c>
+      <c r="M63" s="24">
+        <v>0.58758734069694918</v>
+      </c>
+      <c r="N63" s="24">
+        <v>0.64950363898649655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
+        <v>0</v>
+      </c>
+      <c r="B64" s="19">
+        <v>0</v>
+      </c>
+      <c r="C64" s="19">
+        <v>0</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0</v>
+      </c>
+      <c r="E64" s="19">
+        <v>0</v>
+      </c>
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1</v>
+      </c>
+      <c r="H64" s="23">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="I64" s="18">
+        <f>0.25*H64^2-H64-1</f>
         <v>2</v>
+      </c>
+      <c r="J64" s="24">
+        <v>2</v>
+      </c>
+      <c r="K64" s="24">
+        <v>2</v>
+      </c>
+      <c r="L64" s="24">
+        <v>2</v>
+      </c>
+      <c r="M64" s="24">
+        <v>2</v>
+      </c>
+      <c r="N64" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <f>I66+$F$2</f>
+        <v>2</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" ref="K66:N66" si="18">J66+$F$2</f>
+        <v>4</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <f>I67+$G$2</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" ref="K67:O67" si="19">J67+$G$2</f>
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
